--- a/data/trans_bre/P25A_2_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_2_R2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-74,88%</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>28,72%</t>
+          <t>-48,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>205,73%</t>
+          <t>21,53%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>349,44%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-9,85%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,42; -0,14</t>
+          <t>-3,73; 0,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 2,56</t>
+          <t>-2,6; 4,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 2,93</t>
+          <t>-0,19; 5,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 33,62</t>
+          <t>-2,92; 2,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-61,69; 379,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-69,83; —</t>
+          <t>-71,76; 356,48</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-87,58; 520,73</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-33,15%</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>500,63%</t>
+          <t>-84,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>629,33%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>71,34%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-3,36%</t>
         </is>
       </c>
     </row>
@@ -722,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 1,24</t>
+          <t>-6,88; -0,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 4,0</t>
+          <t>0,55; 5,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 9,58</t>
+          <t>-1,22; 2,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 261,89</t>
+          <t>-5,11; 4,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -747,7 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,91; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-84,89; 355,91</t>
         </is>
       </c>
     </row>
@@ -764,30 +820,40 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-48,11%</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-62,99%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
@@ -802,30 +868,40 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 3,16</t>
+          <t>-17,69; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 2,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-14,62; 0,0</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-56,71%</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>42,31%</t>
+          <t>-74,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>233,89%</t>
+          <t>91,76%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>233,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-15,82%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,43; -0,04</t>
+          <t>-4,01; -0,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 2,01</t>
+          <t>-0,52; 3,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,07</t>
+          <t>-0,07; 2,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-87,66; 12,94</t>
+          <t>-3,05; 2,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,81; 250,09</t>
+          <t>-100,0; 2,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 1041,08</t>
+          <t>-40,87; 608,29</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-69,93; 185,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25A_2_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_2_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,181 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,84</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,13</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,2</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-48,75%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>21,53%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>349,44%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-9,85%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.747393879254871</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.6004409714885636</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.898209319083904</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.3300664065468479</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.4714259166263061</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.2480938079436612</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>3.214128412315208</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.1624447463907018</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,73; 0,93</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,6; 4,08</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,19; 5,57</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,92; 2,47</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-71,76; 356,48</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-87,58; 520,73</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.405721577304275</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.398139462204373</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.2377931397761382</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.993714198077301</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="n">
+        <v>-0.6947379657695877</v>
+      </c>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>-0.8730841082171735</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.9095235180401584</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.163447571100129</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>5.045260502657047</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.185255591898131</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="n">
+        <v>3.842222020067604</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="n">
+        <v>4.666857739238125</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,82</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,4</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,13</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-84,76%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>71,34%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-3,36%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,88; -0,35</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,55; 5,24</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,22; 2,0</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-5,11; 4,69</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-84,89; 355,91</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-2.319003124576636</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2.221395649056847</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.5110418715784927</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.6297796488743047</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.8237294665934032</v>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.055899383844489</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1830750352308476</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,41</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,78</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.633545707232521</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.5023154579476826</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.9253804857113794</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.749471032832544</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="n">
+        <v>-0.8097064087811087</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-17,69; 0,0</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-14,62; 0,0</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-0.1031626983811225</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.422002444629632</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.532723057435817</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.001983406522283</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="n">
+        <v>5.538494936399518</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +809,167 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,92</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,11</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,45</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-74,95%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>91,76%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>233,0%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-15,82%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-2.954958884481486</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.60707366454261</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="6" t="inlineStr"/>
+      <c r="I10" s="6" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-4,01; -0,4</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,52; 3,01</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,07; 2,9</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,05; 2,3</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 2,04</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-40,87; 608,29</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-69,93; 185,92</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-15.48033059595856</v>
+      </c>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="n">
+        <v>-13.7218830416433</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-1.622935513008304</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.270085166734382</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.138612174070978</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.2143478440824041</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.7243897659257241</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.129995768790386</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>2.362996785461173</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.08049243915978684</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.477329268670568</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.3368002921555142</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.05442712257153975</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.642465868512528</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.3269025240904768</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.6872576291220966</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-0.1802714808080822</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.382217822671073</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.679268858458256</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>2.749374124025656</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.1210373761098626</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>6.733257744984467</v>
+      </c>
+      <c r="I15" s="6" t="inlineStr"/>
+      <c r="J15" s="6" t="n">
+        <v>2.350387123798547</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +977,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
